--- a/backend/data/synthetic/gstr3b_payment_link.xlsx
+++ b/backend/data/synthetic/gstr3b_payment_link.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PAY03A8B8EB</t>
+          <t>PAY31F5C6BB</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PAY03B0D95F</t>
+          <t>PAY418F7842</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PAYB418A744</t>
+          <t>PAYF64E519F</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PAYDD5FC8CF</t>
+          <t>PAYC0805C7B</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PAY12CD92AE</t>
+          <t>PAY31C994D7</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PAY830A59F1</t>
+          <t>PAYA271F21A</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PAY406099C0</t>
+          <t>PAY65C2DA42</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PAY665C0A38</t>
+          <t>PAYF147FED1</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PAY83F5F17A</t>
+          <t>PAY3EDC62C4</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PAYDFF16CAF</t>
+          <t>PAY0753339B</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PAY729EE40A</t>
+          <t>PAYC2988104</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PAYC86ABBD7</t>
+          <t>PAY058E3389</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PAY2D0DE840</t>
+          <t>PAYC14714F7</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PAYA5A0E3F7</t>
+          <t>PAY9AD4C4C7</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PAYC1DADB3B</t>
+          <t>PAYEB359F50</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PAYB41A08E8</t>
+          <t>PAY18113F7D</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PAYAF3BDE5A</t>
+          <t>PAYA9360529</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PAYE593EC2D</t>
+          <t>PAY0AD7D2FA</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAY36B829DA</t>
+          <t>PAYDF38A650</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PAYAD2CD7A2</t>
+          <t>PAYDC17523D</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PAY40EE725B</t>
+          <t>PAY52CECD71</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PAY021B5EC7</t>
+          <t>PAYDEBD214A</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PAYF2752F52</t>
+          <t>PAY39F8FB60</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PAY33417E0E</t>
+          <t>PAY7DAEB3BE</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PAY1E556C45</t>
+          <t>PAYDD8BB0DD</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PAY8837D6F6</t>
+          <t>PAY0A399CC5</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PAY1C479B3E</t>
+          <t>PAY548E68E8</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PAY5DECA404</t>
+          <t>PAY7C16C19E</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PAY2B06A002</t>
+          <t>PAYD2C29BB6</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PAY168A4DD0</t>
+          <t>PAY859E9C9F</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PAY9CCA1E5E</t>
+          <t>PAY8B6EFD19</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PAYDB447C12</t>
+          <t>PAY00536CDD</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PAY10502B8B</t>
+          <t>PAY9CED8223</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PAYE4FF2D2A</t>
+          <t>PAY130384CE</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PAYDC83E448</t>
+          <t>PAYBDFD264C</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PAYA51C13E9</t>
+          <t>PAYA1AD1F96</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PAY3BB6A93D</t>
+          <t>PAY804D0535</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PAY462E7835</t>
+          <t>PAY4376EE21</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PAY36B6C055</t>
+          <t>PAYFFE12DEE</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PAY0890F5AA</t>
+          <t>PAYC48E5638</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PAY6339E2A9</t>
+          <t>PAYFA15388F</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PAYAF6E7FEB</t>
+          <t>PAY9E313304</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PAY821684CC</t>
+          <t>PAY5A09C97B</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PAYC8E1DC8A</t>
+          <t>PAYD992370E</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PAY8010CCD6</t>
+          <t>PAYDCC1B970</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PAY96ED21B5</t>
+          <t>PAYB2ECAE66</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PAY951CC183</t>
+          <t>PAY94352C8F</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PAYD806E212</t>
+          <t>PAYE2EC6854</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PAYF827A897</t>
+          <t>PAY051EF33F</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PAY0B3285B8</t>
+          <t>PAYFF6FFC98</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PAYEAE229B7</t>
+          <t>PAYB137875B</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PAYF2742E4D</t>
+          <t>PAY54198F3A</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PAY35E1EEAD</t>
+          <t>PAY43B29987</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PAY713B08A1</t>
+          <t>PAYABB40C41</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PAYBE2F26AA</t>
+          <t>PAY0F9FC53D</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PAY128927BB</t>
+          <t>PAY3B6B1008</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PAY7451DFF6</t>
+          <t>PAY6ABA67FC</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PAY2AF5F473</t>
+          <t>PAYB7DF0AD9</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PAY4128A2DD</t>
+          <t>PAYD46410D0</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PAYD198E38B</t>
+          <t>PAYE0B451D4</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PAY25BE42DB</t>
+          <t>PAY39CD28D1</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PAYABA9374F</t>
+          <t>PAY17B6D53B</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PAYFDD98DD1</t>
+          <t>PAY91D4EC6C</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PAY5C5D1EE6</t>
+          <t>PAY2E74B4C0</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PAYF9E7EAF1</t>
+          <t>PAY489A0D5B</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PAY02114F93</t>
+          <t>PAY8639090C</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PAY081E6DF6</t>
+          <t>PAYF9BC1405</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PAY63C7AE86</t>
+          <t>PAYEA6C7013</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PAY0B3107E1</t>
+          <t>PAY8A5D611C</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PAYBBA8489D</t>
+          <t>PAYBB59EC8C</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PAY342F99AB</t>
+          <t>PAYF092C6DF</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PAYBC0F7762</t>
+          <t>PAY7A2E1571</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PAYC3B6D2F8</t>
+          <t>PAY245318BD</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PAY602AB20E</t>
+          <t>PAY672B91C2</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PAYEFFAF3CC</t>
+          <t>PAYE32022FB</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PAY4BB0495F</t>
+          <t>PAYCA329B7F</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PAYDB6275D8</t>
+          <t>PAY1121D59A</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PAYBC7EB809</t>
+          <t>PAYD6CC8647</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PAY9AB62F10</t>
+          <t>PAY3C641919</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PAY36503D9A</t>
+          <t>PAY3375B291</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PAYD2AA6118</t>
+          <t>PAY16E69662</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PAYA02490A3</t>
+          <t>PAY2278B2B3</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PAY2ADAA40E</t>
+          <t>PAYC414902D</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PAYAC2D6EF5</t>
+          <t>PAY46EBF25E</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PAY3F012699</t>
+          <t>PAY014B512A</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PAY1A562B09</t>
+          <t>PAY9A9F5D6D</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PAY7FA94E4E</t>
+          <t>PAY9B005484</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PAY4E870B85</t>
+          <t>PAY1E6796F4</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PAY9DF04DA4</t>
+          <t>PAYC93E0F26</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PAY8D050A8B</t>
+          <t>PAY1BFB5C09</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAY42E21F6B</t>
+          <t>PAY4BFC7128</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PAY00B42F71</t>
+          <t>PAY7B2D146C</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PAY5E0B8DCB</t>
+          <t>PAY6274B391</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PAY39425F0B</t>
+          <t>PAYE0DC9DAA</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PAY1E3FB2C9</t>
+          <t>PAYC8D89FDC</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PAY4A010C91</t>
+          <t>PAY547586C9</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PAY7FEC8B04</t>
+          <t>PAYEAA1A7EA</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PAY889F54E4</t>
+          <t>PAY9BD5E633</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PAY419D7FB9</t>
+          <t>PAY646FF52A</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PAYB201F3C9</t>
+          <t>PAYB7F59EC0</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PAY2153F286</t>
+          <t>PAY888AFF54</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PAYD2755607</t>
+          <t>PAY9B7727B4</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PAY1FD426EB</t>
+          <t>PAYFB32B569</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PAYB0B37DC8</t>
+          <t>PAY600FAC7C</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PAYD55A1D23</t>
+          <t>PAY0983A179</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PAYC0EF9FAD</t>
+          <t>PAY36F32F07</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PAY1D757E42</t>
+          <t>PAYF6CA6A3E</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PAY2EBE72C0</t>
+          <t>PAYF2975F35</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PAY87745D25</t>
+          <t>PAY6933A2AF</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PAY614995EA</t>
+          <t>PAY35331E86</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PAY72AA20BD</t>
+          <t>PAYD13FF7F9</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PAY62241C02</t>
+          <t>PAYFC06E3EA</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PAY2DFFE8F7</t>
+          <t>PAY1EACECD2</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PAYB6FD5CA7</t>
+          <t>PAY644C3631</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PAYE0B704AE</t>
+          <t>PAY1231AEC5</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PAY4C8D5C2C</t>
+          <t>PAYD7853B67</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PAY16050EE3</t>
+          <t>PAY333B542B</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PAY33EF2809</t>
+          <t>PAYC539950A</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PAYA9EAB294</t>
+          <t>PAY77788F76</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PAYC12CB764</t>
+          <t>PAY063FF8F1</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PAY70694EE4</t>
+          <t>PAY44DCA5C4</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PAY13D6A0AE</t>
+          <t>PAY3ED174BA</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PAYDF9A6731</t>
+          <t>PAY04913EAB</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PAYE8D0E310</t>
+          <t>PAY52762535</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PAYDF88C446</t>
+          <t>PAY54C599F5</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PAY58C531CB</t>
+          <t>PAYA7669A90</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PAY4E984B98</t>
+          <t>PAYA2233404</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PAY28B69BBC</t>
+          <t>PAY9C1B0390</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PAYD3E7F01C</t>
+          <t>PAY53286B38</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PAY0847CC91</t>
+          <t>PAY555BB008</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PAYA02B839D</t>
+          <t>PAY26C074D7</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PAY7F0D692C</t>
+          <t>PAYEF2A6B1B</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PAY5D82BE27</t>
+          <t>PAY0208B75F</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PAYD84537A0</t>
+          <t>PAYE1E41FC5</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PAY1DD4C24F</t>
+          <t>PAY1E7F1206</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PAY5245E363</t>
+          <t>PAY4EBEA434</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PAY4E658959</t>
+          <t>PAYC346B081</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PAY55797AC9</t>
+          <t>PAY1AD6286A</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PAYD7671043</t>
+          <t>PAY2DC0F188</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PAY080F2D88</t>
+          <t>PAY9ED810E3</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PAY6362D606</t>
+          <t>PAY3FF21238</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PAYEAD252EE</t>
+          <t>PAY1027E23A</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PAY107F20FE</t>
+          <t>PAY8066B0DD</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PAYFF2DCB25</t>
+          <t>PAYBB7D7098</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PAYB531486C</t>
+          <t>PAY18A5CB28</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PAY276FE100</t>
+          <t>PAY983A7ED9</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PAYAAD8A9AC</t>
+          <t>PAYB9F97E76</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PAY9D2136A8</t>
+          <t>PAY3E4445B8</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PAY78315275</t>
+          <t>PAY087EDDDB</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PAY2FF3D99A</t>
+          <t>PAY9511E35B</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PAYACA05F72</t>
+          <t>PAYE3A10111</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PAY7BA80FE0</t>
+          <t>PAY71612CBC</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PAY54167FC6</t>
+          <t>PAY0B3628E9</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PAY16E56E33</t>
+          <t>PAY64654A1B</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PAY5694EF58</t>
+          <t>PAY84C7EE32</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PAY188E680C</t>
+          <t>PAYC2C0FD8B</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PAY5B35B402</t>
+          <t>PAYA2B652AA</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PAYB7CB1836</t>
+          <t>PAY0BB76043</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PAY985AB409</t>
+          <t>PAY42660D67</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PAY4FB78107</t>
+          <t>PAY68ED1447</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PAYD985F7ED</t>
+          <t>PAYB084C8B0</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PAYEBB201B7</t>
+          <t>PAYA448A10D</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PAYB7CB044B</t>
+          <t>PAYC6B1D147</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PAY5513E165</t>
+          <t>PAY8A050058</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PAY14C98837</t>
+          <t>PAY7B5E7F0A</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PAYA9F75FB8</t>
+          <t>PAY6809A348</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PAYF6F8AEB6</t>
+          <t>PAY3994B353</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PAY0DD16D48</t>
+          <t>PAY3CEC20E3</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PAY73460F09</t>
+          <t>PAY754BB3F0</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PAY6446A7CB</t>
+          <t>PAYB3B38766</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PAY83BA5726</t>
+          <t>PAYA48173CB</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PAYEE7AC695</t>
+          <t>PAY3BEEAA44</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PAY23DFDDA4</t>
+          <t>PAY14E98E83</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PAY5F3DD22B</t>
+          <t>PAYC8D21752</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PAYCDD5A0A2</t>
+          <t>PAY143B9A68</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PAYDA5E11EA</t>
+          <t>PAY9863B98E</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PAY483290FF</t>
+          <t>PAY4F8750F6</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PAYA13314BD</t>
+          <t>PAY17640301</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PAY7D73DEA9</t>
+          <t>PAYC6C04594</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PAYE986AA3C</t>
+          <t>PAYDDC96F61</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PAY984F0322</t>
+          <t>PAYFADBD5B3</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PAY3FF316EC</t>
+          <t>PAY2A28EDE1</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PAY271C1167</t>
+          <t>PAYA22E9CB4</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PAYC82C5B19</t>
+          <t>PAY6FF055D9</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PAY54B2FCA4</t>
+          <t>PAYFBC523E7</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PAY7B991E47</t>
+          <t>PAY3A6624B6</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PAYD52D3250</t>
+          <t>PAYE4EAA263</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PAYFD0F0A5E</t>
+          <t>PAYCA127CC7</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PAY2D1FF451</t>
+          <t>PAY4AB54403</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PAY45C2699D</t>
+          <t>PAY80D02996</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PAYDF2D5900</t>
+          <t>PAY9EB84E82</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PAYAAA6EF78</t>
+          <t>PAY7EF15669</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PAY132AEDF6</t>
+          <t>PAYB63E5444</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PAY59B08BF4</t>
+          <t>PAY2C969615</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PAY6F5860F9</t>
+          <t>PAY01634F2F</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PAYF9FC7195</t>
+          <t>PAY1CDE164E</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PAYBB81A28D</t>
+          <t>PAY39C7122C</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PAY4111D252</t>
+          <t>PAY8D1C563C</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PAY8A7FC925</t>
+          <t>PAYADA61C46</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PAY0E93ECD5</t>
+          <t>PAY4B55DE3E</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PAY7D974AB3</t>
+          <t>PAYB03E12C6</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PAY5792E67E</t>
+          <t>PAY4E18F03B</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PAYA578486D</t>
+          <t>PAY91489507</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PAY86B9259D</t>
+          <t>PAY1F6DF16E</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PAY7A221629</t>
+          <t>PAYB095CD63</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PAY984FEF2B</t>
+          <t>PAYB5D26FAC</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PAYE92F70A3</t>
+          <t>PAY8F63FBFE</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PAY619F6DCA</t>
+          <t>PAY193304E5</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PAYBCB60D9D</t>
+          <t>PAY7948C424</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PAY7C8ED34D</t>
+          <t>PAYE25E8924</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PAY8723AFE9</t>
+          <t>PAY45864395</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PAYDECF8B22</t>
+          <t>PAY118E2F59</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PAYC2DFB489</t>
+          <t>PAY59B4EDF8</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PAY74FF38AA</t>
+          <t>PAY15EE2FBA</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PAYBA316EAF</t>
+          <t>PAY0B3F25DB</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PAYC982D2BB</t>
+          <t>PAYFC021E7B</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PAYDD05BACA</t>
+          <t>PAYA8453BBF</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PAY0203B9E2</t>
+          <t>PAY66DA74BE</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PAY6E388A75</t>
+          <t>PAY67BD6706</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PAY09E3647D</t>
+          <t>PAY6D61B60C</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PAYD5F149D0</t>
+          <t>PAYD3653AA3</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PAY37C56435</t>
+          <t>PAY97CCD90B</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PAY68792AC9</t>
+          <t>PAYF195611F</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PAYAE6E9C0F</t>
+          <t>PAY158E39A1</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PAYFD13334B</t>
+          <t>PAY10F7D20A</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PAY29AA54EE</t>
+          <t>PAY11D91F70</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PAY39A422C7</t>
+          <t>PAY23C2495E</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PAY5665D37A</t>
+          <t>PAYFF5A939E</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PAY46AA19D0</t>
+          <t>PAY8E4B7712</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PAYFAF9D2DC</t>
+          <t>PAY78BBD104</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PAY152C3FCB</t>
+          <t>PAY9722676D</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PAY3B32AE5F</t>
+          <t>PAYB02AE1E6</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PAY891A2469</t>
+          <t>PAYA0C0D2DC</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PAY9520DCE5</t>
+          <t>PAY0806F7DC</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PAY53F374B7</t>
+          <t>PAY1993B614</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PAY1284A32C</t>
+          <t>PAY575686E9</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PAY58808B71</t>
+          <t>PAYFB85A403</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PAY688DDC4A</t>
+          <t>PAYAB270367</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PAYAF9C6B64</t>
+          <t>PAYDDA62D20</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PAYDC903B5D</t>
+          <t>PAY87AA226F</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PAYCEB75F24</t>
+          <t>PAY2AC5F3B5</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PAY90B30BFA</t>
+          <t>PAY85ACB2A8</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PAY5A160D3E</t>
+          <t>PAYC7202EF9</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PAY1CA78D32</t>
+          <t>PAY68E83CBF</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PAYB6ECE1CE</t>
+          <t>PAY40522A08</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PAY8F6DCF7E</t>
+          <t>PAY5D7967C9</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PAYFEDFB9E6</t>
+          <t>PAY92FCB4E2</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PAYFF91589E</t>
+          <t>PAY86AE0F0B</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PAY426D90BC</t>
+          <t>PAY3B5DB729</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PAY953E5481</t>
+          <t>PAYC6F15225</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PAY0DE5D87E</t>
+          <t>PAY27BC5734</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PAYE88B203E</t>
+          <t>PAY2BB8BD8E</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PAYE5E1F4C3</t>
+          <t>PAYF12C368C</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PAYAF84E381</t>
+          <t>PAY410007DA</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PAY969FB80E</t>
+          <t>PAY80042F19</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PAYB113193B</t>
+          <t>PAY4C1D4528</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PAY0AEA7590</t>
+          <t>PAYABD5064B</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PAYD76F8C06</t>
+          <t>PAY6ACF1833</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PAY2B58D345</t>
+          <t>PAY7A479403</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PAY5D3C050F</t>
+          <t>PAYBD71FCC1</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PAYFDAC3681</t>
+          <t>PAYB7BBE7EE</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PAY66761211</t>
+          <t>PAY4C933AF7</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>PAY262B756A</t>
+          <t>PAYC2232362</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PAY4CE3885C</t>
+          <t>PAY91B7F2E9</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PAYDBFDF36A</t>
+          <t>PAY1416A0D2</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PAYA3A48437</t>
+          <t>PAY2D969A6E</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PAY79CA4C77</t>
+          <t>PAYE9D0763E</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PAY4C24BDDD</t>
+          <t>PAY254D58C3</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PAY0E269D84</t>
+          <t>PAY1F6A6CDC</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PAY5E7EF990</t>
+          <t>PAY06FE5420</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PAYAAE81595</t>
+          <t>PAY72C5B855</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PAY79970D3B</t>
+          <t>PAY3678E941</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>PAY8CF13785</t>
+          <t>PAY6AB82F0A</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PAYCCE2C56C</t>
+          <t>PAYA20423D5</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PAYFFB18A87</t>
+          <t>PAYB831A4B3</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PAY24B33F05</t>
+          <t>PAY6C08BAE9</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PAYA8CD55EF</t>
+          <t>PAY4B8151A0</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PAY39AEF6FE</t>
+          <t>PAYE2C87301</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PAY64CAEBE2</t>
+          <t>PAY2DAECF46</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PAY19D189E0</t>
+          <t>PAY8FB6EC12</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PAYEB235FAD</t>
+          <t>PAY30A0707B</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PAY3FFEB4AE</t>
+          <t>PAYA8A56D0B</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PAYEA61DF60</t>
+          <t>PAY721EAFE7</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>PAY78B831F6</t>
+          <t>PAYE723AA85</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PAY10CB5283</t>
+          <t>PAY6788E4E4</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PAY7E444EE1</t>
+          <t>PAY4EE4C9D0</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PAY4462C942</t>
+          <t>PAY008CC26A</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PAY7F2839C2</t>
+          <t>PAYFC9B1E2F</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PAY0D480844</t>
+          <t>PAY669B79D1</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PAY0442B07E</t>
+          <t>PAYB3C231D7</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PAY9312BE13</t>
+          <t>PAY0CC9A67A</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PAYA9CEBD86</t>
+          <t>PAY15923326</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PAY982B7E21</t>
+          <t>PAY31A539C5</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PAYD469D8A8</t>
+          <t>PAY63F10960</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PAYD43EBCA8</t>
+          <t>PAYEF0EAAA0</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PAYC3C6F310</t>
+          <t>PAY3AE50DC8</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PAY2A60AEC8</t>
+          <t>PAY2794B31D</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PAY44C2240B</t>
+          <t>PAY8D5FF5AF</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PAY2DF9C7E7</t>
+          <t>PAY322DAB57</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PAYA63EE032</t>
+          <t>PAY59C8007C</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PAY47D39BEE</t>
+          <t>PAY906961E1</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PAYF2045FDF</t>
+          <t>PAYBC7A7EB3</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PAYC044DF4D</t>
+          <t>PAY0E8C22F9</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PAY69BBF92B</t>
+          <t>PAY980A9BE4</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PAY38086F9D</t>
+          <t>PAY53B6F7B2</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PAYFB853297</t>
+          <t>PAY6062369F</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>PAY4E6B0E20</t>
+          <t>PAY8F78A1E1</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>PAY8344D117</t>
+          <t>PAYDA8A40A9</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PAYCAECE9C5</t>
+          <t>PAYE1245297</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PAY384B79CB</t>
+          <t>PAYA830E34C</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PAY9B1D729D</t>
+          <t>PAY526865A7</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PAY60478507</t>
+          <t>PAY18C76C5B</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PAY5A0DB283</t>
+          <t>PAYFA25E0B9</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PAY8D9B20A4</t>
+          <t>PAY4B20B015</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PAY18E4982F</t>
+          <t>PAYD74F5E95</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>PAY4F153C53</t>
+          <t>PAY8EFCE3E4</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>PAYF33ACECC</t>
+          <t>PAY93C334E5</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>PAYD4D11D40</t>
+          <t>PAY5C8D7FFE</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PAY6C8C36F8</t>
+          <t>PAYBC84B5E5</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>PAY90042176</t>
+          <t>PAY238A37A4</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PAYAE65F6E5</t>
+          <t>PAY753D3B1F</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PAY8F41B6C3</t>
+          <t>PAY1AB23028</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PAY3D345C00</t>
+          <t>PAYB53B9C70</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PAYC8DF13DC</t>
+          <t>PAY97850A24</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PAYC9EDC080</t>
+          <t>PAY4BF268D0</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PAY0379A0FC</t>
+          <t>PAYA73B0E97</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PAY0AF420B6</t>
+          <t>PAY9898838A</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>PAYD4F93E7A</t>
+          <t>PAYAB147055</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>PAY9F06CE88</t>
+          <t>PAY28A1B19A</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>PAYADF41BE0</t>
+          <t>PAYFABA92B1</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>PAYCAB6836F</t>
+          <t>PAY879D1BF5</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PAY061A363B</t>
+          <t>PAY8ADB5E20</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>PAY3525B4DC</t>
+          <t>PAY44E811A0</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>PAYF0692645</t>
+          <t>PAY6EF784FD</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>PAY1D399941</t>
+          <t>PAY09EF3E02</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>PAY6F3685F4</t>
+          <t>PAY25AB5579</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>PAY83BBC5BB</t>
+          <t>PAY563DF2CE</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>PAY663B797C</t>
+          <t>PAY85AFBDF1</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>PAY28DD6ED9</t>
+          <t>PAY6A624FF0</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>PAY8373F4CE</t>
+          <t>PAYEE44C4BA</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PAYDCDA9C41</t>
+          <t>PAY31C19612</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>PAYE62E88AB</t>
+          <t>PAY5364648C</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PAY7B4711BE</t>
+          <t>PAY191F9B94</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>PAY1CB4DF83</t>
+          <t>PAY3C47FF71</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>PAYCF88B8A5</t>
+          <t>PAY2F2258C9</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>PAYBE8DDC53</t>
+          <t>PAYA1CC80BB</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>PAY43C74D3A</t>
+          <t>PAYCB5E7228</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>PAYE7DACFA2</t>
+          <t>PAY6BAC2E4A</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>PAYD89EA27A</t>
+          <t>PAY26F8900C</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>PAYE249E0AB</t>
+          <t>PAY0A8255EA</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>PAYEE9EC36B</t>
+          <t>PAYB4BD7C1B</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>PAYE887D25C</t>
+          <t>PAY4A4DC978</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>PAY00633933</t>
+          <t>PAYA6840BA1</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>PAY7928B621</t>
+          <t>PAY9A03ACB5</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>PAYAD0BB2FA</t>
+          <t>PAYF7C87017</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>PAYD625F7A0</t>
+          <t>PAY981C5985</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>PAY9FAB8DC6</t>
+          <t>PAY62634E7D</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>PAYEC468C68</t>
+          <t>PAYB57E3C6F</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>PAY9FE381F6</t>
+          <t>PAYC7DA8FE7</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>PAY15C8CA2B</t>
+          <t>PAY424C53A1</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>PAY3C5C8E1C</t>
+          <t>PAYFBDED9D8</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PAY24B3A75C</t>
+          <t>PAYC2252E94</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>PAY72BA7F73</t>
+          <t>PAYA6881D1E</t>
         </is>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>PAYF3627DCE</t>
+          <t>PAYA61D4217</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PAYCC8BF2E6</t>
+          <t>PAY4188FDCA</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>PAY207684B4</t>
+          <t>PAYD1284A53</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>PAY44A5E251</t>
+          <t>PAYAF40AAF6</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>PAYE5A3D6DC</t>
+          <t>PAYE8DB2122</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>PAY39523174</t>
+          <t>PAY5E56AA70</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>PAYF03DF1F1</t>
+          <t>PAY2F2D72E2</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>PAY7F558A10</t>
+          <t>PAY891BC671</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PAY19E9BDCE</t>
+          <t>PAY604905AD</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PAYBC992CAA</t>
+          <t>PAY7DFFA931</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>PAY920996B9</t>
+          <t>PAYE5E80BEA</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>PAY5C03C348</t>
+          <t>PAYA035742D</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>PAY3E963B29</t>
+          <t>PAYCCA63A97</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>PAYC954CEFA</t>
+          <t>PAY0F9F913E</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>PAYFE8E12E2</t>
+          <t>PAYF77BFC3D</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>PAY2B8CCA57</t>
+          <t>PAY1BA12561</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>PAY0B62B279</t>
+          <t>PAYA21A273F</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>PAY7570D7AF</t>
+          <t>PAY2DAC2FD5</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>PAYCE6A928C</t>
+          <t>PAY112B28F4</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>PAY33AB40BB</t>
+          <t>PAY4023A2CA</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>PAYAC5F044F</t>
+          <t>PAY55C85DEF</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>PAYF22B2616</t>
+          <t>PAY5F07155B</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>PAY0C15A586</t>
+          <t>PAY3FFB8B30</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PAY90D3CD94</t>
+          <t>PAY194F3A2F</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>PAYF16CBD65</t>
+          <t>PAY3D0A2B01</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PAYF5DFCA48</t>
+          <t>PAY217D9A63</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>PAY2319D4F4</t>
+          <t>PAY5812F30D</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>PAYA4F154A3</t>
+          <t>PAY7A54C24A</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>PAY660EECCB</t>
+          <t>PAYC089177A</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>PAYE9FD388A</t>
+          <t>PAY7E58445E</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>PAY48C17C53</t>
+          <t>PAYB2635D51</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>PAY171DB6A5</t>
+          <t>PAY6AC060C6</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>PAY2E20D9A6</t>
+          <t>PAY11324923</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>PAYBB49D6C2</t>
+          <t>PAY7EB3D9F8</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>PAY38564461</t>
+          <t>PAYA6B42B4B</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>PAY8D5B283F</t>
+          <t>PAY259784C9</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>PAY443CB697</t>
+          <t>PAYCAE43906</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>PAYE8636E18</t>
+          <t>PAY0C5E7177</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PAYBA14621E</t>
+          <t>PAYEF6F74A2</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PAYA657DDCB</t>
+          <t>PAY345CE79B</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PAY25F9B7D0</t>
+          <t>PAY56325639</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PAY35EF23DE</t>
+          <t>PAYE701F47C</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PAY6CEA24AD</t>
+          <t>PAYBDC32C20</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PAY4D3A5020</t>
+          <t>PAY21D8882B</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PAYDF736734</t>
+          <t>PAYCB6C9C38</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PAYF4B4CC18</t>
+          <t>PAY3E2D9BCA</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PAY9DC959F2</t>
+          <t>PAY31AB27CF</t>
         </is>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PAYCCE51FA9</t>
+          <t>PAYCA98FB27</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>PAY39E06697</t>
+          <t>PAY2C766539</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>PAY390B4AD5</t>
+          <t>PAY91180446</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>PAYEF4E5A4B</t>
+          <t>PAYD48E4AD4</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>PAY47D33553</t>
+          <t>PAYE731A849</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>PAY30D5057C</t>
+          <t>PAY8794B867</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>PAY3C9B32CF</t>
+          <t>PAY6D0317FD</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>PAYFD604462</t>
+          <t>PAYA6B69F9D</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PAYDEAF6B6C</t>
+          <t>PAY3214822F</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>PAY704801BB</t>
+          <t>PAYBA949F5C</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PAY84BFFB60</t>
+          <t>PAY76BEE84B</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>PAY7A3CF40F</t>
+          <t>PAYB0D802F0</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>PAY618BAFB4</t>
+          <t>PAYFFBB83C4</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>PAYF0541285</t>
+          <t>PAY5DE9C4E1</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>PAY01732015</t>
+          <t>PAY77E3BD52</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PAYB8B13919</t>
+          <t>PAY6C233289</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>PAY11D33171</t>
+          <t>PAYD7343F6D</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PAY8FC148F0</t>
+          <t>PAY71883CCA</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PAY6818FE07</t>
+          <t>PAY02C71E79</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PAY6F561FE0</t>
+          <t>PAY1DE94E77</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PAY52943CBD</t>
+          <t>PAY6A8AA51C</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PAY6898928A</t>
+          <t>PAYCD286434</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PAYE9C1CD31</t>
+          <t>PAY63B0A77E</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PAY9D8C56E8</t>
+          <t>PAYB823DD23</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PAYBCA24906</t>
+          <t>PAY8C19E5E2</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>PAY6B708130</t>
+          <t>PAYCCCF8172</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>PAY7E71EDE4</t>
+          <t>PAY8AB0731B</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PAYEC515FFE</t>
+          <t>PAY2F13D20A</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PAYA3136DA0</t>
+          <t>PAY82950469</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>PAYA48A663A</t>
+          <t>PAY280BC052</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>PAYE9D145AE</t>
+          <t>PAYC0634CE4</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>PAY84B9DCE8</t>
+          <t>PAY3B2317AC</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>PAY0C25961C</t>
+          <t>PAY0F3DA786</t>
         </is>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>PAYFAA23260</t>
+          <t>PAY9ECD1EC5</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>PAY77283DAE</t>
+          <t>PAY3D208CA2</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>PAYE1121A60</t>
+          <t>PAYC2C60572</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>PAY56A6D668</t>
+          <t>PAYC75C623D</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>PAYE42B4F71</t>
+          <t>PAY8EFAA1F2</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>PAY42DBBC59</t>
+          <t>PAYB7D162A6</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>PAY52253438</t>
+          <t>PAYB1920ABB</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>PAY52B10E2E</t>
+          <t>PAY876BDD7A</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>PAY521C5A77</t>
+          <t>PAY0F82F605</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>PAYCEB30231</t>
+          <t>PAYD815ADA9</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>PAYCFF295D8</t>
+          <t>PAYCB7F162D</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>PAY68A4EBA2</t>
+          <t>PAY61842528</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>PAY06870DC7</t>
+          <t>PAY6F5B5987</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>PAY39520154</t>
+          <t>PAY77714833</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PAYB583C06A</t>
+          <t>PAYF8ABFCE0</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PAY76FBF228</t>
+          <t>PAYC39725DC</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>PAY62F04605</t>
+          <t>PAY3FD80A9F</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>PAYAA370BDA</t>
+          <t>PAY8C54E490</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>PAYCB225183</t>
+          <t>PAYAFE9B612</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>PAYAEAB1654</t>
+          <t>PAY395F7656</t>
         </is>
       </c>
     </row>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>PAY206D802A</t>
+          <t>PAY32707304</t>
         </is>
       </c>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>PAY729630F7</t>
+          <t>PAYFC0E2891</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>PAYD24E300D</t>
+          <t>PAY4F885397</t>
         </is>
       </c>
     </row>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>PAY03D56CE4</t>
+          <t>PAY2049EADE</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>PAY9C3417D9</t>
+          <t>PAYE46610E4</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>PAY70F2A8EF</t>
+          <t>PAY1A709E55</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>PAY09082D15</t>
+          <t>PAYA14F24EA</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>PAY0F5FB9D8</t>
+          <t>PAY1D96F91C</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>PAYB16AC4A1</t>
+          <t>PAY800A119E</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>PAYDA9F203E</t>
+          <t>PAYD1640D0F</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>PAY198D4869</t>
+          <t>PAY4DAC1733</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>PAY2B9DF1EF</t>
+          <t>PAYFB38A771</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>PAYCC5026F1</t>
+          <t>PAY6FDE1C5A</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>PAY35298C8E</t>
+          <t>PAY4808353A</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>PAYF693A5A8</t>
+          <t>PAY87A592FF</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>PAY635A8B41</t>
+          <t>PAY7A02DED8</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>PAY5B9E6FE9</t>
+          <t>PAY5D653CF9</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>PAYAEBEC324</t>
+          <t>PAYC2CDD9C2</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>PAYDB0C98DA</t>
+          <t>PAYB7653FE3</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>PAY5009B161</t>
+          <t>PAY50DED40D</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>PAY761F09A8</t>
+          <t>PAYD90082F7</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>PAYADF62497</t>
+          <t>PAYB3706E98</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>PAY3C6BF01A</t>
+          <t>PAY25F72069</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>PAY8614CD1F</t>
+          <t>PAY861979AB</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>PAYCC051F93</t>
+          <t>PAYEAF5E282</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>PAYE310ED21</t>
+          <t>PAY6F55A867</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>PAYB677D7DE</t>
+          <t>PAYE7C1508D</t>
         </is>
       </c>
     </row>
